--- a/Documents/画面設計書_部活動管理システムA04A05A06.xlsx
+++ b/Documents/画面設計書_部活動管理システムA04A05A06.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20344"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ookubo\Documents\jc21ps_2019\Document\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34868E5-D4FC-430D-8CA1-B890E937676F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0CFDC309-D7C1-45E5-A18B-26FD5FA53C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="4" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6915" firstSheet="3" activeTab="3" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="A00.ヘッダー" sheetId="2" r:id="rId1"/>
@@ -31,7 +26,8 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'A06.部員登録承認'!$A$1:$I$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'A07.部活情報登録'!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A52:N68"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3220,10 +3216,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>承認・拒否の情報を登録する(trn_club_member.leader_flg)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>部活名を表示する。(mst_club.club_name)</t>
     <rPh sb="0" eb="2">
       <t>ブカツ</t>
@@ -3309,6 +3301,16 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>登録するユーザーが部長かどうか(trn_club_member.leader_flg)</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ブチョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3788,39 +3790,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3836,6 +3805,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3845,17 +3823,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3863,11 +3865,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3878,8 +3880,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3905,21 +3922,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3932,17 +3934,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3953,8 +3952,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3980,23 +3979,26 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26313,316 +26315,321 @@
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>43599</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="50"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="50" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="50"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="46"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="44"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="40" t="s">
+      <c r="E21" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-    </row>
-    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+    </row>
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="44"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-    </row>
-    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="44"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="42" t="s">
+      <c r="E24" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -26635,16 +26642,11 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26661,271 +26663,271 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>43599</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="50"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="50" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="50"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39" t="s">
+      <c r="C30" s="54"/>
+      <c r="D30" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39" t="s">
+      <c r="E30" s="54"/>
+      <c r="F30" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="58"/>
-    </row>
-    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="64"/>
+    </row>
+    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="11" t="s">
         <v>12</v>
       </c>
@@ -26937,14 +26939,14 @@
         <v>48</v>
       </c>
       <c r="E31" s="59"/>
-      <c r="F31" s="60" t="s">
+      <c r="F31" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -26956,14 +26958,14 @@
         <v>48</v>
       </c>
       <c r="E32" s="59"/>
-      <c r="F32" s="60" t="s">
+      <c r="F32" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
+      <c r="G32" s="58"/>
+      <c r="H32" s="58"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
@@ -26982,43 +26984,43 @@
       <c r="H33" s="59"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A34" s="39" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A37" s="64" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="64"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="64"/>
-      <c r="G37" s="64"/>
-      <c r="H37" s="64"/>
-      <c r="I37" s="64"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B37" s="60"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
@@ -27031,7 +27033,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="14" t="s">
         <v>58</v>
       </c>
@@ -27040,13 +27042,13 @@
       <c r="D39" s="12"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A40" s="61" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="61"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="61"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+      <c r="D40" s="58"/>
       <c r="E40" s="59" t="s">
         <v>60</v>
       </c>
@@ -27055,13 +27057,13 @@
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A41" s="61" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="61"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
+      <c r="B41" s="58"/>
+      <c r="C41" s="58"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="59" t="s">
         <v>62</v>
       </c>
@@ -27070,13 +27072,13 @@
       <c r="H41" s="59"/>
       <c r="I41" s="59"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A42" s="61" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="58" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="61"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="61"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="59" t="s">
         <v>64</v>
       </c>
@@ -27085,13 +27087,13 @@
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A43" s="61" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="61"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="61"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="59" t="s">
         <v>66</v>
       </c>
@@ -27100,13 +27102,13 @@
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A44" s="61" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A44" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
       <c r="E44" s="59" t="s">
         <v>68</v>
       </c>
@@ -27115,13 +27117,13 @@
       <c r="H44" s="59"/>
       <c r="I44" s="59"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A45" s="61" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A45" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="58"/>
       <c r="E45" s="59" t="s">
         <v>70</v>
       </c>
@@ -27130,13 +27132,13 @@
       <c r="H45" s="59"/>
       <c r="I45" s="59"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="61" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="58"/>
+      <c r="D46" s="58"/>
       <c r="E46" s="59" t="s">
         <v>72</v>
       </c>
@@ -27145,13 +27147,13 @@
       <c r="H46" s="59"/>
       <c r="I46" s="59"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A47" s="61" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="59" t="s">
         <v>74</v>
       </c>
@@ -27160,46 +27162,11 @@
       <c r="H47" s="59"/>
       <c r="I47" s="59"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:I47"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -27212,6 +27179,41 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27228,441 +27230,441 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
       <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>43599</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="50"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
       <c r="B5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
       <c r="B6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="50" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="50"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
       <c r="B8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
       <c r="B9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="8"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="8"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="8"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="8"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="46"/>
+      <c r="C47" s="53"/>
       <c r="D47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="39"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+    </row>
+    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="43" t="s">
+      <c r="B48" s="50" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="44"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="41" t="s">
+      <c r="E48" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-    </row>
-    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="56"/>
+    </row>
+    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="43" t="s">
+      <c r="B49" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="44"/>
+      <c r="C49" s="51"/>
       <c r="D49" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-      <c r="I49" s="40"/>
-    </row>
-    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+    </row>
+    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="44"/>
+      <c r="C50" s="51"/>
       <c r="D50" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="40" t="s">
+      <c r="E50" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-    </row>
-    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+    </row>
+    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="50" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="44"/>
+      <c r="C51" s="51"/>
       <c r="D51" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="42" t="s">
+      <c r="E51" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="42"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-    </row>
-    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F51" s="57"/>
+      <c r="G51" s="57"/>
+      <c r="H51" s="57"/>
+      <c r="I51" s="57"/>
+    </row>
+    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="43" t="s">
+      <c r="B52" s="50" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="44"/>
+      <c r="C52" s="51"/>
       <c r="D52" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="42" t="s">
+      <c r="E52" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="65"/>
-      <c r="G52" s="65"/>
-      <c r="H52" s="65"/>
-      <c r="I52" s="65"/>
-    </row>
-    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F52" s="69"/>
+      <c r="G52" s="69"/>
+      <c r="H52" s="69"/>
+      <c r="I52" s="69"/>
+    </row>
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="43" t="s">
+      <c r="B53" s="50" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="44"/>
+      <c r="C53" s="51"/>
       <c r="D53" s="37" t="s">
         <v>46</v>
       </c>
@@ -27674,33 +27676,33 @@
       <c r="H53" s="67"/>
       <c r="I53" s="68"/>
     </row>
-    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="43" t="s">
+      <c r="B54" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="44"/>
+      <c r="C54" s="51"/>
       <c r="D54" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="E54" s="66" t="s">
         <v>275</v>
-      </c>
-      <c r="E54" s="66" t="s">
-        <v>276</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="67"/>
       <c r="H54" s="67"/>
       <c r="I54" s="68"/>
     </row>
-    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="44"/>
+      <c r="C55" s="51"/>
       <c r="D55" s="37" t="s">
         <v>46</v>
       </c>
@@ -27712,14 +27714,14 @@
       <c r="H55" s="67"/>
       <c r="I55" s="68"/>
     </row>
-    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="44"/>
+      <c r="C56" s="51"/>
       <c r="D56" s="37" t="s">
         <v>46</v>
       </c>
@@ -27731,14 +27733,14 @@
       <c r="H56" s="67"/>
       <c r="I56" s="68"/>
     </row>
-    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="44"/>
+      <c r="C57" s="51"/>
       <c r="D57" s="37" t="s">
         <v>46</v>
       </c>
@@ -27750,14 +27752,14 @@
       <c r="H57" s="67"/>
       <c r="I57" s="68"/>
     </row>
-    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="43" t="s">
+      <c r="B58" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="44"/>
+      <c r="C58" s="51"/>
       <c r="D58" s="37" t="s">
         <v>46</v>
       </c>
@@ -27769,14 +27771,14 @@
       <c r="H58" s="67"/>
       <c r="I58" s="68"/>
     </row>
-    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="43" t="s">
+      <c r="B59" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="44"/>
+      <c r="C59" s="51"/>
       <c r="D59" s="37" t="s">
         <v>46</v>
       </c>
@@ -27788,14 +27790,14 @@
       <c r="H59" s="67"/>
       <c r="I59" s="68"/>
     </row>
-    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="43" t="s">
+      <c r="B60" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="44"/>
+      <c r="C60" s="51"/>
       <c r="D60" s="37" t="s">
         <v>46</v>
       </c>
@@ -27807,14 +27809,14 @@
       <c r="H60" s="67"/>
       <c r="I60" s="68"/>
     </row>
-    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="43" t="s">
+      <c r="B61" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="44"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="37" t="s">
         <v>46</v>
       </c>
@@ -27826,14 +27828,14 @@
       <c r="H61" s="67"/>
       <c r="I61" s="68"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="B62" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="44"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="37" t="s">
         <v>1</v>
       </c>
@@ -27845,26 +27847,26 @@
       <c r="H62" s="67"/>
       <c r="I62" s="68"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A63" s="45" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="46"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="53"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" s="15" t="s">
         <v>118</v>
       </c>
@@ -27873,7 +27875,7 @@
       <c r="D65" s="15"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" s="16" t="s">
         <v>119</v>
       </c>
@@ -27886,14 +27888,14 @@
       <c r="H66"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" s="14"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" s="15" t="s">
         <v>120</v>
       </c>
@@ -27906,7 +27908,7 @@
       <c r="H68"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" s="15" t="s">
         <v>121</v>
       </c>
@@ -27919,7 +27921,7 @@
       <c r="H69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" s="15" t="s">
         <v>122</v>
       </c>
@@ -27932,7 +27934,7 @@
       <c r="H70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A71" s="15" t="s">
         <v>123</v>
       </c>
@@ -27945,7 +27947,7 @@
       <c r="H71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -27956,7 +27958,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A73" s="15" t="s">
         <v>106</v>
       </c>
@@ -27969,7 +27971,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A74" s="15" t="s">
         <v>124</v>
       </c>
@@ -27982,7 +27984,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -27993,7 +27995,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A76" s="15" t="s">
         <v>125</v>
       </c>
@@ -28006,7 +28008,7 @@
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A77" s="15" t="s">
         <v>126</v>
       </c>
@@ -28019,7 +28021,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -28030,7 +28032,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A79" s="15" t="s">
         <v>127</v>
       </c>
@@ -28043,7 +28045,7 @@
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A80" s="15" t="s">
         <v>128</v>
       </c>
@@ -28056,7 +28058,7 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -28067,45 +28069,28 @@
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A83" s="1" t="s">
-        <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:I62"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="E49:I49"/>
     <mergeCell ref="C6:E6"/>
@@ -28119,16 +28104,33 @@
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:I48"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:I62"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28141,300 +28143,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA86AED-8B45-4645-A8AB-39AA91BED920}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F56" sqref="F56:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>43599</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="50"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="50" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="50"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -28450,14 +28452,14 @@
       <c r="E41" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="46"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G41" s="65"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="53"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -28473,14 +28475,14 @@
       <c r="E42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="78" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="74"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="75"/>
-    </row>
-    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="80"/>
+    </row>
+    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -28496,14 +28498,14 @@
       <c r="E43" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="70" t="s">
+      <c r="F43" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="74"/>
-      <c r="H43" s="74"/>
-      <c r="I43" s="75"/>
-    </row>
-    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="80"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
@@ -28519,14 +28521,14 @@
       <c r="E44" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="70" t="s">
+      <c r="F44" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="75"/>
-    </row>
-    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="80"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -28542,14 +28544,14 @@
       <c r="E45" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="70" t="s">
+      <c r="F45" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="72"/>
-    </row>
-    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="77"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
@@ -28565,14 +28567,14 @@
       <c r="E46" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="70" t="s">
+      <c r="F46" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="72"/>
-    </row>
-    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="77"/>
+    </row>
+    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4" t="s">
         <v>90</v>
       </c>
@@ -28588,14 +28590,14 @@
       <c r="E47" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="70" t="s">
+      <c r="F47" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="72"/>
-    </row>
-    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="77"/>
+    </row>
+    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -28611,14 +28613,14 @@
       <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="70" t="s">
+      <c r="F48" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="72"/>
-    </row>
-    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="77"/>
+    </row>
+    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
@@ -28634,14 +28636,14 @@
       <c r="E49" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="73" t="s">
+      <c r="F49" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="74"/>
-      <c r="H49" s="74"/>
-      <c r="I49" s="75"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G49" s="79"/>
+      <c r="H49" s="79"/>
+      <c r="I49" s="80"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -28657,14 +28659,14 @@
       <c r="E50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="73" t="s">
+      <c r="F50" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="G50" s="74"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="75"/>
-    </row>
-    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="80"/>
+    </row>
+    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
@@ -28680,14 +28682,14 @@
       <c r="E51" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="73" t="s">
+      <c r="F51" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="74"/>
-      <c r="H51" s="74"/>
-      <c r="I51" s="75"/>
-    </row>
-    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G51" s="79"/>
+      <c r="H51" s="79"/>
+      <c r="I51" s="80"/>
+    </row>
+    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -28703,14 +28705,14 @@
       <c r="E52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="73" t="s">
+      <c r="F52" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="74"/>
-      <c r="H52" s="74"/>
-      <c r="I52" s="75"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G52" s="79"/>
+      <c r="H52" s="79"/>
+      <c r="I52" s="80"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="19" t="s">
         <v>108</v>
       </c>
@@ -28726,496 +28728,470 @@
       <c r="E53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="73" t="s">
+      <c r="F53" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="74"/>
-      <c r="H53" s="74"/>
-      <c r="I53" s="75"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A54" s="45" t="s">
+      <c r="G53" s="79"/>
+      <c r="H53" s="79"/>
+      <c r="I53" s="80"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="69"/>
-      <c r="C54" s="69"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="69"/>
-      <c r="F54" s="69"/>
-      <c r="G54" s="69"/>
-      <c r="H54" s="69"/>
-      <c r="I54" s="46"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B54" s="65"/>
+      <c r="C54" s="65"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="65"/>
+      <c r="F54" s="65"/>
+      <c r="G54" s="65"/>
+      <c r="H54" s="65"/>
+      <c r="I54" s="53"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="76" t="s">
+      <c r="C55" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="77"/>
+      <c r="D55" s="82"/>
       <c r="E55" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="65" t="s">
+      <c r="F55" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="65"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="69"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="C56" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="44"/>
+      <c r="D56" s="51"/>
       <c r="E56" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="65" t="s">
+      <c r="F56" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="65"/>
-      <c r="H56" s="65"/>
-      <c r="I56" s="65"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G56" s="69"/>
+      <c r="H56" s="69"/>
+      <c r="I56" s="69"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="43" t="s">
+      <c r="C57" s="50" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="44"/>
+      <c r="D57" s="51"/>
       <c r="E57" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="65" t="s">
+      <c r="F57" s="69" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="65"/>
-      <c r="H57" s="65"/>
-      <c r="I57" s="65"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G57" s="69"/>
+      <c r="H57" s="69"/>
+      <c r="I57" s="69"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="43" t="s">
+      <c r="C58" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="44"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="65" t="s">
+      <c r="F58" s="69" t="s">
         <v>170</v>
       </c>
-      <c r="G58" s="65"/>
-      <c r="H58" s="65"/>
-      <c r="I58" s="65"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G58" s="69"/>
+      <c r="H58" s="69"/>
+      <c r="I58" s="69"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="43" t="s">
+      <c r="C59" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="44"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F59" s="65" t="s">
+      <c r="F59" s="69" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="65"/>
-      <c r="H59" s="65"/>
-      <c r="I59" s="65"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G59" s="69"/>
+      <c r="H59" s="69"/>
+      <c r="I59" s="69"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="43" t="s">
+      <c r="C60" s="50" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="44"/>
+      <c r="D60" s="51"/>
       <c r="E60" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="65" t="s">
+      <c r="F60" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="G60" s="65"/>
-      <c r="H60" s="65"/>
-      <c r="I60" s="65"/>
-    </row>
-    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G60" s="69"/>
+      <c r="H60" s="69"/>
+      <c r="I60" s="69"/>
+    </row>
+    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="43" t="s">
+      <c r="C61" s="50" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="44"/>
+      <c r="D61" s="51"/>
       <c r="E61" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="F61" s="42" t="s">
+      <c r="F61" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
-      <c r="I61" s="65"/>
-    </row>
-    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="G61" s="69"/>
+      <c r="H61" s="69"/>
+      <c r="I61" s="69"/>
+    </row>
+    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="43" t="s">
+      <c r="C62" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="44"/>
+      <c r="D62" s="51"/>
       <c r="E62" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="42" t="s">
+      <c r="F62" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="G62" s="65"/>
-      <c r="H62" s="65"/>
-      <c r="I62" s="65"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A63" s="45" t="s">
+      <c r="G62" s="69"/>
+      <c r="H62" s="69"/>
+      <c r="I62" s="69"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="69"/>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="69"/>
-      <c r="F63" s="69"/>
-      <c r="G63" s="69"/>
-      <c r="H63" s="69"/>
-      <c r="I63" s="46"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B63" s="65"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="65"/>
+      <c r="E63" s="65"/>
+      <c r="F63" s="65"/>
+      <c r="G63" s="65"/>
+      <c r="H63" s="65"/>
+      <c r="I63" s="53"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="78" t="s">
+      <c r="B64" s="70" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="78"/>
-      <c r="D64" s="78"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="78" t="s">
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70" t="s">
         <v>184</v>
       </c>
-      <c r="G64" s="78"/>
-      <c r="H64" s="78"/>
-      <c r="I64" s="78"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A65" s="79" t="s">
+      <c r="G64" s="70"/>
+      <c r="H64" s="70"/>
+      <c r="I64" s="70"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="78" t="s">
+      <c r="B65" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="78"/>
-      <c r="D65" s="78"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="78" t="s">
+      <c r="C65" s="70"/>
+      <c r="D65" s="70"/>
+      <c r="E65" s="70"/>
+      <c r="F65" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="G65" s="78"/>
-      <c r="H65" s="78"/>
-      <c r="I65" s="78"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A66" s="80"/>
-      <c r="B66" s="78" t="s">
+      <c r="G65" s="70"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="70"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" s="72"/>
+      <c r="B66" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="78"/>
-      <c r="D66" s="78"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78" t="s">
+      <c r="C66" s="70"/>
+      <c r="D66" s="70"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A67" s="79" t="s">
+      <c r="G66" s="70"/>
+      <c r="H66" s="70"/>
+      <c r="I66" s="70"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="78" t="s">
+      <c r="B67" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="78" t="s">
+      <c r="C67" s="70"/>
+      <c r="D67" s="70"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70" t="s">
         <v>189</v>
       </c>
-      <c r="G67" s="78"/>
-      <c r="H67" s="78"/>
-      <c r="I67" s="78"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A68" s="80"/>
-      <c r="B68" s="78" t="s">
+      <c r="G67" s="70"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="70"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" s="72"/>
+      <c r="B68" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="78"/>
-      <c r="D68" s="78"/>
-      <c r="E68" s="78"/>
-      <c r="F68" s="78" t="s">
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="G68" s="78"/>
-      <c r="H68" s="78"/>
-      <c r="I68" s="78"/>
-    </row>
-    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A69" s="80"/>
-      <c r="B69" s="82" t="s">
+      <c r="G68" s="70"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
+    </row>
+    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="72"/>
+      <c r="B69" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="78"/>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="82" t="s">
+      <c r="C69" s="70"/>
+      <c r="D69" s="70"/>
+      <c r="E69" s="70"/>
+      <c r="F69" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="G69" s="78"/>
-      <c r="H69" s="78"/>
-      <c r="I69" s="78"/>
-    </row>
-    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A70" s="81"/>
-      <c r="B70" s="78" t="s">
+      <c r="G69" s="70"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="70"/>
+    </row>
+    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="74"/>
+      <c r="B70" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="78"/>
-      <c r="D70" s="78"/>
-      <c r="E70" s="78"/>
-      <c r="F70" s="78" t="s">
+      <c r="C70" s="70"/>
+      <c r="D70" s="70"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70" t="s">
         <v>195</v>
       </c>
-      <c r="G70" s="78"/>
-      <c r="H70" s="78"/>
-      <c r="I70" s="78"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A71" s="79" t="s">
+      <c r="G70" s="70"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" s="71" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="78" t="s">
+      <c r="B71" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="78"/>
-      <c r="D71" s="78"/>
-      <c r="E71" s="78"/>
-      <c r="F71" s="78" t="s">
+      <c r="C71" s="70"/>
+      <c r="D71" s="70"/>
+      <c r="E71" s="70"/>
+      <c r="F71" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="78"/>
-      <c r="H71" s="78"/>
-      <c r="I71" s="78"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A72" s="80"/>
-      <c r="B72" s="78" t="s">
+      <c r="G71" s="70"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="70"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" s="72"/>
+      <c r="B72" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
-      <c r="E72" s="78"/>
-      <c r="F72" s="78" t="s">
+      <c r="C72" s="70"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70" t="s">
         <v>197</v>
       </c>
-      <c r="G72" s="78"/>
-      <c r="H72" s="78"/>
-      <c r="I72" s="78"/>
-    </row>
-    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A73" s="80"/>
-      <c r="B73" s="82" t="s">
+      <c r="G72" s="70"/>
+      <c r="H72" s="70"/>
+      <c r="I72" s="70"/>
+    </row>
+    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="72"/>
+      <c r="B73" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="78"/>
-      <c r="D73" s="78"/>
-      <c r="E73" s="78"/>
-      <c r="F73" s="82" t="s">
+      <c r="C73" s="70"/>
+      <c r="D73" s="70"/>
+      <c r="E73" s="70"/>
+      <c r="F73" s="73" t="s">
         <v>198</v>
       </c>
-      <c r="G73" s="78"/>
-      <c r="H73" s="78"/>
-      <c r="I73" s="78"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A74" s="79" t="s">
+      <c r="G73" s="70"/>
+      <c r="H73" s="70"/>
+      <c r="I73" s="70"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" s="71" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="78" t="s">
+      <c r="B74" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="78"/>
-      <c r="D74" s="78"/>
-      <c r="E74" s="78"/>
-      <c r="F74" s="78" t="s">
+      <c r="C74" s="70"/>
+      <c r="D74" s="70"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70" t="s">
         <v>186</v>
       </c>
-      <c r="G74" s="78"/>
-      <c r="H74" s="78"/>
-      <c r="I74" s="78"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A75" s="80"/>
-      <c r="B75" s="78" t="s">
+      <c r="G74" s="70"/>
+      <c r="H74" s="70"/>
+      <c r="I74" s="70"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" s="72"/>
+      <c r="B75" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="78"/>
-      <c r="D75" s="78"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78" t="s">
+      <c r="C75" s="70"/>
+      <c r="D75" s="70"/>
+      <c r="E75" s="70"/>
+      <c r="F75" s="70" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="78"/>
-      <c r="H75" s="78"/>
-      <c r="I75" s="78"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A76" s="79" t="s">
+      <c r="G75" s="70"/>
+      <c r="H75" s="70"/>
+      <c r="I75" s="70"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="78" t="s">
+      <c r="B76" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78" t="s">
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="78"/>
-      <c r="H76" s="78"/>
-      <c r="I76" s="78"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A77" s="80"/>
-      <c r="B77" s="78" t="s">
+      <c r="G76" s="70"/>
+      <c r="H76" s="70"/>
+      <c r="I76" s="70"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" s="72"/>
+      <c r="B77" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="78"/>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="78" t="s">
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="70"/>
+      <c r="F77" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="78"/>
-      <c r="H77" s="78"/>
-      <c r="I77" s="78"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G77" s="70"/>
+      <c r="H77" s="70"/>
+      <c r="I77" s="70"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A78" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="78" t="s">
+      <c r="B78" s="70" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="78"/>
-      <c r="D78" s="78"/>
-      <c r="E78" s="78"/>
-      <c r="F78" s="65" t="s">
+      <c r="C78" s="70"/>
+      <c r="D78" s="70"/>
+      <c r="E78" s="70"/>
+      <c r="F78" s="69" t="s">
         <v>201</v>
       </c>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
+      <c r="G78" s="69"/>
+      <c r="H78" s="69"/>
+      <c r="I78" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="F56:I56"/>
     <mergeCell ref="F46:I46"/>
@@ -29229,28 +29205,54 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="F55:I55"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29263,280 +29265,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C3BD8C-2E32-48BE-BEFD-56C188B50064}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>43599</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="50"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="50" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="50"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
@@ -29546,16 +29548,16 @@
       <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="45" t="s">
+      <c r="D36" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="69"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="46"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65"/>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -29565,16 +29567,16 @@
       <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="81" t="s">
         <v>206</v>
       </c>
       <c r="E37" s="83"/>
       <c r="F37" s="83"/>
       <c r="G37" s="83"/>
       <c r="H37" s="83"/>
-      <c r="I37" s="77"/>
-    </row>
-    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I37" s="82"/>
+    </row>
+    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -29591,9 +29593,9 @@
       <c r="F38" s="83"/>
       <c r="G38" s="83"/>
       <c r="H38" s="83"/>
-      <c r="I38" s="77"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I38" s="82"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -29612,7 +29614,7 @@
       <c r="H39" s="85"/>
       <c r="I39" s="86"/>
     </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
@@ -29631,7 +29633,7 @@
       <c r="H40" s="85"/>
       <c r="I40" s="86"/>
     </row>
-    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -29641,72 +29643,60 @@
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="76" t="s">
+      <c r="D41" s="81" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="83"/>
       <c r="F41" s="83"/>
       <c r="G41" s="83"/>
       <c r="H41" s="83"/>
-      <c r="I41" s="77"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A42" s="45" t="s">
+      <c r="I41" s="82"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="69"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="69"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="46"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B42" s="65"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="65"/>
+      <c r="F42" s="65"/>
+      <c r="G42" s="65"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="53"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D41:I41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -29719,6 +29709,18 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29731,292 +29733,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E404173-E494-49A5-91D0-06DCC8BD706D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F50" sqref="F50:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>43599</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="50"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="50" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="50"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="28"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="29" t="s">
         <v>16</v>
       </c>
@@ -30026,16 +30028,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
       <c r="I39" s="88"/>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="30" t="s">
         <v>12</v>
       </c>
@@ -30045,16 +30047,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="81" t="s">
         <v>223</v>
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
       <c r="H40" s="83"/>
-      <c r="I40" s="89"/>
-    </row>
-    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I40" s="102"/>
+    </row>
+    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="30" t="s">
         <v>9</v>
       </c>
@@ -30064,16 +30066,16 @@
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="70" t="s">
+      <c r="D41" s="75" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="90"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="103"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="30" t="s">
         <v>6</v>
       </c>
@@ -30083,16 +30085,16 @@
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="91" t="s">
-        <v>273</v>
-      </c>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="92"/>
-      <c r="H42" s="92"/>
-      <c r="I42" s="93"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D42" s="90" t="s">
+        <v>272</v>
+      </c>
+      <c r="E42" s="91"/>
+      <c r="F42" s="91"/>
+      <c r="G42" s="91"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="92"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="30" t="s">
         <v>3</v>
       </c>
@@ -30109,9 +30111,9 @@
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
       <c r="H43" s="67"/>
-      <c r="I43" s="87"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I43" s="93"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="30" t="s">
         <v>86</v>
       </c>
@@ -30121,16 +30123,16 @@
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="91" t="s">
-        <v>274</v>
-      </c>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="93"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="D44" s="90" t="s">
+        <v>273</v>
+      </c>
+      <c r="E44" s="91"/>
+      <c r="F44" s="91"/>
+      <c r="G44" s="91"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="92"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="30" t="s">
         <v>90</v>
       </c>
@@ -30147,145 +30149,141 @@
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
       <c r="H45" s="67"/>
-      <c r="I45" s="87"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="94" t="s">
+      <c r="I45" s="93"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
       <c r="I46" s="88"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A47" s="95" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A47" s="94" t="s">
         <v>219</v>
       </c>
-      <c r="B47" s="96"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
-      <c r="F47" s="96"/>
-      <c r="G47" s="96"/>
-      <c r="H47" s="96"/>
-      <c r="I47" s="97"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A48" s="98" t="s">
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="96"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="97" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="100" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="99"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="101" t="s">
+      <c r="F48" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="102"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="103" t="s">
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="101"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="44"/>
-      <c r="C49" s="43" t="s">
+      <c r="B49" s="51"/>
+      <c r="C49" s="50" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="44"/>
+      <c r="D49" s="51"/>
       <c r="E49" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="69" t="s">
         <v>268</v>
       </c>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="65"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A50" s="103" t="s">
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="89" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="44"/>
-      <c r="C50" s="43" t="s">
+      <c r="B50" s="51"/>
+      <c r="C50" s="50" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="44"/>
+      <c r="D50" s="51"/>
       <c r="E50" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F50" s="65" t="s">
+      <c r="F50" s="69" t="s">
         <v>269</v>
       </c>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A51" s="94" t="s">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="69"/>
-      <c r="C51" s="69"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="69"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="65"/>
+      <c r="D51" s="65"/>
+      <c r="E51" s="65"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
       <c r="I51" s="88"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -30298,16 +30296,20 @@
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
     <mergeCell ref="D42:I42"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:I50"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30320,288 +30322,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CA5284-9049-4E6F-911D-0F2233957585}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:I51"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>43599</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="50"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="50" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="50"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="32"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="32"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
@@ -30611,16 +30613,16 @@
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="45" t="s">
+      <c r="D38" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="46"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="53"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -30630,16 +30632,16 @@
       <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="76" t="s">
+      <c r="D39" s="81" t="s">
         <v>227</v>
       </c>
       <c r="E39" s="83"/>
       <c r="F39" s="83"/>
       <c r="G39" s="83"/>
       <c r="H39" s="83"/>
-      <c r="I39" s="77"/>
-    </row>
-    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I39" s="82"/>
+    </row>
+    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -30658,7 +30660,7 @@
       <c r="H40" s="67"/>
       <c r="I40" s="68"/>
     </row>
-    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -30677,7 +30679,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="68"/>
     </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -30696,7 +30698,7 @@
       <c r="H42" s="85"/>
       <c r="I42" s="86"/>
     </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -30706,16 +30708,16 @@
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="76" t="s">
+      <c r="D43" s="81" t="s">
         <v>231</v>
       </c>
       <c r="E43" s="83"/>
       <c r="F43" s="83"/>
       <c r="G43" s="83"/>
       <c r="H43" s="83"/>
-      <c r="I43" s="77"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I43" s="82"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>90</v>
       </c>
@@ -30725,16 +30727,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="81" t="s">
         <v>233</v>
       </c>
       <c r="E44" s="83"/>
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
       <c r="H44" s="83"/>
-      <c r="I44" s="77"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I44" s="82"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -30753,20 +30755,20 @@
       <c r="H45" s="67"/>
       <c r="I45" s="68"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="45" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="46"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="53"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="33" t="s">
         <v>234</v>
       </c>
@@ -30779,34 +30781,34 @@
       <c r="H47" s="34"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A48" s="100" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A48" s="99" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="99"/>
-      <c r="C48" s="100" t="s">
+      <c r="B48" s="98"/>
+      <c r="C48" s="99" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="99"/>
+      <c r="D48" s="98"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="100" t="s">
+      <c r="F48" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="104"/>
-      <c r="H48" s="104"/>
-      <c r="I48" s="99"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="76" t="s">
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="98"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="77"/>
-      <c r="C49" s="76" t="s">
+      <c r="B49" s="82"/>
+      <c r="C49" s="81" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="77"/>
+      <c r="D49" s="82"/>
       <c r="E49" s="25" t="s">
         <v>163</v>
       </c>
@@ -30817,45 +30819,45 @@
       <c r="H49" s="85"/>
       <c r="I49" s="86"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A50" s="76" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="B50" s="77"/>
-      <c r="C50" s="76" t="s">
+      <c r="B50" s="82"/>
+      <c r="C50" s="81" t="s">
         <v>221</v>
       </c>
-      <c r="D50" s="77"/>
+      <c r="D50" s="82"/>
       <c r="E50" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="F50" s="105" t="s">
+      <c r="F50" s="104" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="105"/>
-      <c r="H50" s="105"/>
-      <c r="I50" s="105"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A51" s="76" t="s">
+      <c r="G50" s="104"/>
+      <c r="H50" s="104"/>
+      <c r="I50" s="104"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="81" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="77"/>
-      <c r="C51" s="76" t="s">
+      <c r="B51" s="82"/>
+      <c r="C51" s="81" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="77"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="F51" s="107" t="s">
-        <v>272</v>
-      </c>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="F51" s="105" t="s">
+        <v>279</v>
+      </c>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="33" t="s">
         <v>237</v>
       </c>
@@ -30868,20 +30870,20 @@
       <c r="H52" s="34"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A53" s="100" t="s">
+    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="104"/>
-      <c r="C53" s="104"/>
-      <c r="D53" s="104"/>
-      <c r="E53" s="104"/>
-      <c r="F53" s="104"/>
-      <c r="G53" s="104"/>
-      <c r="H53" s="104"/>
-      <c r="I53" s="99"/>
-    </row>
-    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B53" s="107"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="98"/>
+    </row>
+    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="66" t="s">
         <v>258</v>
       </c>
@@ -30892,68 +30894,97 @@
       <c r="F54" s="83"/>
       <c r="G54" s="83"/>
       <c r="H54" s="83"/>
-      <c r="I54" s="77"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A55" s="45" t="s">
+      <c r="I54" s="82"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="69"/>
-      <c r="C55" s="69"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="69"/>
-      <c r="F55" s="69"/>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="46"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B55" s="65"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="65"/>
+      <c r="E55" s="65"/>
+      <c r="F55" s="65"/>
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="53"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" s="27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A66" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="A55:I55"/>
     <mergeCell ref="A49:B49"/>
     <mergeCell ref="C49:D49"/>
@@ -30966,35 +30997,6 @@
     <mergeCell ref="F51:I51"/>
     <mergeCell ref="A53:I53"/>
     <mergeCell ref="A54:I54"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31007,292 +31009,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440DAACA-D7A1-43F1-853F-D7EC8172BABB}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="39" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="52"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A3" s="50"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="41"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="39"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="55">
+      <c r="G3" s="47">
         <v>43599</v>
       </c>
-      <c r="H3" s="51"/>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A4" s="50"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="41"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="39"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="51" t="s">
+      <c r="C4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="51">
+      <c r="G4" s="40">
         <v>1</v>
       </c>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A5" s="50"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="41"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="39"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A6" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="49"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="39"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A7" s="50" t="s">
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="C7" s="40" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="52"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A8" s="50"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="41"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="39"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="40" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A9" s="50"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="41"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="39"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="40" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="52"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A10" s="50" t="s">
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="41"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="54"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="32"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
@@ -31302,16 +31304,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="45" t="s">
+      <c r="D39" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="69"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="46"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="53"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -31321,16 +31323,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="76" t="s">
+      <c r="D40" s="81" t="s">
         <v>246</v>
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
       <c r="H40" s="83"/>
-      <c r="I40" s="77"/>
-    </row>
-    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I40" s="82"/>
+    </row>
+    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -31349,7 +31351,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="68"/>
     </row>
-    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -31368,7 +31370,7 @@
       <c r="H42" s="67"/>
       <c r="I42" s="68"/>
     </row>
-    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -31387,7 +31389,7 @@
       <c r="H43" s="67"/>
       <c r="I43" s="68"/>
     </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
@@ -31397,16 +31399,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="76" t="s">
+      <c r="D44" s="81" t="s">
         <v>248</v>
       </c>
       <c r="E44" s="83"/>
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
       <c r="H44" s="83"/>
-      <c r="I44" s="77"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="I44" s="82"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="19" t="s">
         <v>90</v>
       </c>
@@ -31416,125 +31418,131 @@
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="81" t="s">
         <v>249</v>
       </c>
       <c r="E45" s="83"/>
       <c r="F45" s="83"/>
       <c r="G45" s="83"/>
       <c r="H45" s="83"/>
-      <c r="I45" s="77"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A46" s="45" t="s">
+      <c r="I45" s="82"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A46" s="52" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="69"/>
-      <c r="C46" s="69"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="69"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="46"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="65"/>
+      <c r="F46" s="65"/>
+      <c r="G46" s="65"/>
+      <c r="H46" s="65"/>
+      <c r="I46" s="53"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="76" t="s">
+      <c r="C47" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="77"/>
+      <c r="D47" s="82"/>
       <c r="E47" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="65"/>
-      <c r="H47" s="65"/>
-      <c r="I47" s="65"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="43" t="s">
+      <c r="C48" s="50" t="s">
         <v>251</v>
       </c>
-      <c r="D48" s="44"/>
+      <c r="D48" s="51"/>
       <c r="E48" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="A49" s="45" t="s">
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A49" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="69"/>
-      <c r="C49" s="69"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="69"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="46"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="53"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="106"/>
-      <c r="D50" s="106"/>
-      <c r="E50" s="44"/>
-      <c r="F50" s="65" t="s">
+      <c r="C50" s="108"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="65"/>
-      <c r="H50" s="65"/>
-      <c r="I50" s="65"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="50" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="106"/>
-      <c r="D51" s="106"/>
-      <c r="E51" s="44"/>
-      <c r="F51" s="65" t="s">
+      <c r="C51" s="108"/>
+      <c r="D51" s="108"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="69" t="s">
         <v>254</v>
       </c>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
-      <c r="I51" s="65"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
@@ -31551,18 +31559,12 @@
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="A46:I46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/画面設計書_部活動管理システムA04A05A06.xlsx
+++ b/Documents/画面設計書_部活動管理システムA04A05A06.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20344"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{0CFDC309-D7C1-45E5-A18B-26FD5FA53C44}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ookubo\Documents\jc21ps_2019\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34868E5-D4FC-430D-8CA1-B890E937676F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16020" windowHeight="6915" firstSheet="3" activeTab="3" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" firstSheet="1" activeTab="4" xr2:uid="{D68D4521-B31D-4671-A1BE-B42047F1FCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="A00.ヘッダー" sheetId="2" r:id="rId1"/>
@@ -26,8 +31,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="6">'A06.部員登録承認'!$A$1:$I$67</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'A07.部活情報登録'!$A$1:$I$51</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A52:N68"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3216,6 +3220,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>承認・拒否の情報を登録する(trn_club_member.leader_flg)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>部活名を表示する。(mst_club.club_name)</t>
     <rPh sb="0" eb="2">
       <t>ブカツ</t>
@@ -3301,16 +3309,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>登録するユーザーが部長かどうか(trn_club_member.leader_flg)</t>
-    <rPh sb="0" eb="2">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ブチョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3790,6 +3788,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3805,15 +3836,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3823,41 +3845,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3865,11 +3863,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3880,23 +3878,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3922,6 +3905,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3934,14 +3932,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3952,8 +3953,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3979,26 +3980,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -26315,321 +26313,316 @@
       <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="50"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="55">
         <v>43599</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="50"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="50"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="50"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="50"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="53"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-    </row>
-    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="44"/>
       <c r="D21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="44"/>
       <c r="D22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-    </row>
-    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+    </row>
+    <row r="23" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="44"/>
       <c r="D23" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-    </row>
-    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="44"/>
       <c r="D24" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -26642,11 +26635,16 @@
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E24:I24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26663,271 +26661,271 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="50"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="55">
         <v>43599</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="50"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="50"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="50"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="50"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54" t="s">
+      <c r="C30" s="39"/>
+      <c r="D30" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54" t="s">
+      <c r="E30" s="39"/>
+      <c r="F30" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="64"/>
-    </row>
-    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="58"/>
+    </row>
+    <row r="31" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A31" s="11" t="s">
         <v>12</v>
       </c>
@@ -26939,14 +26937,14 @@
         <v>48</v>
       </c>
       <c r="E31" s="59"/>
-      <c r="F31" s="61" t="s">
+      <c r="F31" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="61"/>
       <c r="I31" s="62"/>
     </row>
-    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="11" t="s">
         <v>9</v>
       </c>
@@ -26958,14 +26956,14 @@
         <v>48</v>
       </c>
       <c r="E32" s="59"/>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="58"/>
-      <c r="H32" s="58"/>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61"/>
       <c r="I32" s="62"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
@@ -26984,43 +26982,43 @@
       <c r="H33" s="59"/>
       <c r="I33" s="63"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A34" s="54" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A34" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="60" t="s">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A37" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B37" s="64"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="12" t="s">
         <v>57</v>
       </c>
@@ -27033,7 +27031,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="14" t="s">
         <v>58</v>
       </c>
@@ -27042,13 +27040,13 @@
       <c r="D39" s="12"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="58" t="s">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A40" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="58"/>
-      <c r="D40" s="58"/>
+      <c r="B40" s="61"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="61"/>
       <c r="E40" s="59" t="s">
         <v>60</v>
       </c>
@@ -27057,13 +27055,13 @@
       <c r="H40" s="59"/>
       <c r="I40" s="59"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="58" t="s">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A41" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="59" t="s">
         <v>62</v>
       </c>
@@ -27072,13 +27070,13 @@
       <c r="H41" s="59"/>
       <c r="I41" s="59"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="58" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A42" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="58"/>
-      <c r="D42" s="58"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="59" t="s">
         <v>64</v>
       </c>
@@ -27087,13 +27085,13 @@
       <c r="H42" s="59"/>
       <c r="I42" s="59"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="58" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A43" s="61" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="59" t="s">
         <v>66</v>
       </c>
@@ -27102,13 +27100,13 @@
       <c r="H43" s="59"/>
       <c r="I43" s="59"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A44" s="58" t="s">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A44" s="61" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="61"/>
       <c r="E44" s="59" t="s">
         <v>68</v>
       </c>
@@ -27117,13 +27115,13 @@
       <c r="H44" s="59"/>
       <c r="I44" s="59"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A45" s="58" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A45" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="59" t="s">
         <v>70</v>
       </c>
@@ -27132,13 +27130,13 @@
       <c r="H45" s="59"/>
       <c r="I45" s="59"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="58" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="61" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="59" t="s">
         <v>72</v>
       </c>
@@ -27147,13 +27145,13 @@
       <c r="H46" s="59"/>
       <c r="I46" s="59"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="58" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A47" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="59" t="s">
         <v>74</v>
       </c>
@@ -27162,11 +27160,46 @@
       <c r="H47" s="59"/>
       <c r="I47" s="59"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="E45:I45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="E46:I46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="E47:I47"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="E43:I43"/>
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="E44:I44"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:I32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:I31"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -27179,41 +27212,6 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:I32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="E42:I42"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="E43:I43"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="E44:I44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="E45:I45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="E46:I46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="E47:I47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27230,441 +27228,441 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="50"/>
       <c r="B3" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="55">
         <v>43599</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="50"/>
       <c r="B4" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="50"/>
       <c r="B5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="50"/>
       <c r="B6" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="50"/>
       <c r="B8" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="50"/>
       <c r="B9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="8"/>
       <c r="I41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A42" s="8"/>
       <c r="I42" s="7"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="8"/>
       <c r="I43" s="7"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="8"/>
       <c r="I44" s="7"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A45" s="8"/>
       <c r="I45" s="7"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="8"/>
       <c r="I46" s="7"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="C47" s="53"/>
+      <c r="C47" s="46"/>
       <c r="D47" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E47" s="54" t="s">
+      <c r="E47" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-    </row>
-    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="39"/>
+    </row>
+    <row r="48" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="C48" s="51"/>
+      <c r="C48" s="44"/>
       <c r="D48" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="56" t="s">
+      <c r="E48" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-    </row>
-    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+    </row>
+    <row r="49" spans="1:9" ht="37.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="51"/>
+      <c r="C49" s="44"/>
       <c r="D49" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="55" t="s">
+      <c r="E49" s="40" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-    </row>
-    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
+      <c r="I49" s="40"/>
+    </row>
+    <row r="50" spans="1:9" ht="42.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="51"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="E50" s="55" t="s">
+      <c r="E50" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="F50" s="55"/>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-    </row>
-    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+    </row>
+    <row r="51" spans="1:9" ht="22.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="C51" s="51"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="E51" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="F51" s="57"/>
-      <c r="G51" s="57"/>
-      <c r="H51" s="57"/>
-      <c r="I51" s="57"/>
-    </row>
-    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+    </row>
+    <row r="52" spans="1:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="50" t="s">
+      <c r="B52" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="51"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="69"/>
-      <c r="G52" s="69"/>
-      <c r="H52" s="69"/>
-      <c r="I52" s="69"/>
-    </row>
-    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="F52" s="65"/>
+      <c r="G52" s="65"/>
+      <c r="H52" s="65"/>
+      <c r="I52" s="65"/>
+    </row>
+    <row r="53" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B53" s="50" t="s">
+      <c r="B53" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="51"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="37" t="s">
         <v>46</v>
       </c>
@@ -27676,33 +27674,33 @@
       <c r="H53" s="67"/>
       <c r="I53" s="68"/>
     </row>
-    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" ht="46.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="50" t="s">
+      <c r="B54" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="C54" s="51"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="37" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E54" s="66" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F54" s="67"/>
       <c r="G54" s="67"/>
       <c r="H54" s="67"/>
       <c r="I54" s="68"/>
     </row>
-    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" ht="54.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="50" t="s">
+      <c r="B55" s="43" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="51"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="37" t="s">
         <v>46</v>
       </c>
@@ -27714,14 +27712,14 @@
       <c r="H55" s="67"/>
       <c r="I55" s="68"/>
     </row>
-    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B56" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C56" s="51"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="37" t="s">
         <v>46</v>
       </c>
@@ -27733,14 +27731,14 @@
       <c r="H56" s="67"/>
       <c r="I56" s="68"/>
     </row>
-    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" ht="40.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A57" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="50" t="s">
+      <c r="B57" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C57" s="51"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="37" t="s">
         <v>46</v>
       </c>
@@ -27752,14 +27750,14 @@
       <c r="H57" s="67"/>
       <c r="I57" s="68"/>
     </row>
-    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="50" t="s">
+      <c r="B58" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="51"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="37" t="s">
         <v>46</v>
       </c>
@@ -27771,14 +27769,14 @@
       <c r="H58" s="67"/>
       <c r="I58" s="68"/>
     </row>
-    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A59" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="50" t="s">
+      <c r="B59" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="51"/>
+      <c r="C59" s="44"/>
       <c r="D59" s="37" t="s">
         <v>46</v>
       </c>
@@ -27790,14 +27788,14 @@
       <c r="H59" s="67"/>
       <c r="I59" s="68"/>
     </row>
-    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" ht="37.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A60" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B60" s="50" t="s">
+      <c r="B60" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="C60" s="51"/>
+      <c r="C60" s="44"/>
       <c r="D60" s="37" t="s">
         <v>46</v>
       </c>
@@ -27809,14 +27807,14 @@
       <c r="H60" s="67"/>
       <c r="I60" s="68"/>
     </row>
-    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="51"/>
+      <c r="C61" s="44"/>
       <c r="D61" s="37" t="s">
         <v>46</v>
       </c>
@@ -27828,14 +27826,14 @@
       <c r="H61" s="67"/>
       <c r="I61" s="68"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A62" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="B62" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="B62" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="51"/>
+      <c r="C62" s="44"/>
       <c r="D62" s="37" t="s">
         <v>1</v>
       </c>
@@ -27847,26 +27845,26 @@
       <c r="H62" s="67"/>
       <c r="I62" s="68"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="52" t="s">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A63" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="53"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="8" t="s">
         <v>117</v>
       </c>
       <c r="I64" s="7"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A65" s="15" t="s">
         <v>118</v>
       </c>
@@ -27875,7 +27873,7 @@
       <c r="D65" s="15"/>
       <c r="I65" s="7"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A66" s="16" t="s">
         <v>119</v>
       </c>
@@ -27888,14 +27886,14 @@
       <c r="H66"/>
       <c r="I66"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A67" s="14"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
       <c r="I67" s="7"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A68" s="15" t="s">
         <v>120</v>
       </c>
@@ -27908,7 +27906,7 @@
       <c r="H68"/>
       <c r="I68"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A69" s="15" t="s">
         <v>121</v>
       </c>
@@ -27921,7 +27919,7 @@
       <c r="H69"/>
       <c r="I69"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A70" s="15" t="s">
         <v>122</v>
       </c>
@@ -27934,7 +27932,7 @@
       <c r="H70"/>
       <c r="I70"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A71" s="15" t="s">
         <v>123</v>
       </c>
@@ -27947,7 +27945,7 @@
       <c r="H71"/>
       <c r="I71"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A72" s="15"/>
       <c r="B72" s="15"/>
       <c r="C72" s="15"/>
@@ -27958,7 +27956,7 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A73" s="15" t="s">
         <v>106</v>
       </c>
@@ -27971,7 +27969,7 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A74" s="15" t="s">
         <v>124</v>
       </c>
@@ -27984,7 +27982,7 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A75" s="15"/>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>
@@ -27995,7 +27993,7 @@
       <c r="H75"/>
       <c r="I75"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A76" s="15" t="s">
         <v>125</v>
       </c>
@@ -28008,7 +28006,7 @@
       <c r="H76"/>
       <c r="I76"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A77" s="15" t="s">
         <v>126</v>
       </c>
@@ -28021,7 +28019,7 @@
       <c r="H77"/>
       <c r="I77"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A78" s="15"/>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -28032,7 +28030,7 @@
       <c r="H78"/>
       <c r="I78"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A79" s="15" t="s">
         <v>127</v>
       </c>
@@ -28045,7 +28043,7 @@
       <c r="H79"/>
       <c r="I79"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A80" s="15" t="s">
         <v>128</v>
       </c>
@@ -28058,7 +28056,7 @@
       <c r="H80"/>
       <c r="I80"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A81" s="15"/>
       <c r="B81" s="15"/>
       <c r="C81" s="15"/>
@@ -28069,28 +28067,45 @@
       <c r="H81"/>
       <c r="I81"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A82" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A83" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="E56:I56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="E57:I57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="E58:I58"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="E54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="E55:I55"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="E51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="E52:I52"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="E49:I49"/>
     <mergeCell ref="C6:E6"/>
@@ -28104,33 +28119,16 @@
     <mergeCell ref="E47:I47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="E48:I48"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="E51:I51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="E52:I52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="E53:I53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="E54:I54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="E55:I55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="E56:I56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="E57:I57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="E58:I58"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="E59:I59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="E60:I60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="E61:I61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28143,300 +28141,300 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBA86AED-8B45-4645-A8AB-39AA91BED920}">
   <dimension ref="A1:I78"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A52" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A52" zoomScale="85" zoomScaleNormal="70" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="F56" sqref="F56:I56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="50"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="55">
         <v>43599</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="50"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="50"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="50"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="50"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="8"/>
       <c r="I39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A40" s="8"/>
       <c r="I40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A41" s="6" t="s">
         <v>16</v>
       </c>
@@ -28452,14 +28450,14 @@
       <c r="E41" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="G41" s="65"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="53"/>
-    </row>
-    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="46"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -28475,14 +28473,14 @@
       <c r="E42" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F42" s="78" t="s">
+      <c r="F42" s="73" t="s">
         <v>135</v>
       </c>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="80"/>
-    </row>
-    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G42" s="74"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
+    </row>
+    <row r="43" spans="1:9" ht="52.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>9</v>
       </c>
@@ -28498,14 +28496,14 @@
       <c r="E43" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F43" s="75" t="s">
+      <c r="F43" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="80"/>
-    </row>
-    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G43" s="74"/>
+      <c r="H43" s="74"/>
+      <c r="I43" s="75"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>6</v>
       </c>
@@ -28521,14 +28519,14 @@
       <c r="E44" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="75" t="s">
+      <c r="F44" s="70" t="s">
         <v>136</v>
       </c>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="80"/>
-    </row>
-    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="75"/>
+    </row>
+    <row r="45" spans="1:9" ht="37.35" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>3</v>
       </c>
@@ -28544,14 +28542,14 @@
       <c r="E45" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F45" s="75" t="s">
+      <c r="F45" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="G45" s="76"/>
-      <c r="H45" s="76"/>
-      <c r="I45" s="77"/>
-    </row>
-    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G45" s="71"/>
+      <c r="H45" s="71"/>
+      <c r="I45" s="72"/>
+    </row>
+    <row r="46" spans="1:9" ht="38.450000000000003" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A46" s="4" t="s">
         <v>86</v>
       </c>
@@ -28567,14 +28565,14 @@
       <c r="E46" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F46" s="75" t="s">
+      <c r="F46" s="70" t="s">
         <v>142</v>
       </c>
-      <c r="G46" s="76"/>
-      <c r="H46" s="76"/>
-      <c r="I46" s="77"/>
-    </row>
-    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G46" s="71"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="72"/>
+    </row>
+    <row r="47" spans="1:9" ht="32.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A47" s="4" t="s">
         <v>90</v>
       </c>
@@ -28590,14 +28588,14 @@
       <c r="E47" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="F47" s="75" t="s">
+      <c r="F47" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="76"/>
-      <c r="H47" s="76"/>
-      <c r="I47" s="77"/>
-    </row>
-    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="72"/>
+    </row>
+    <row r="48" spans="1:9" ht="36.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4" t="s">
         <v>93</v>
       </c>
@@ -28613,14 +28611,14 @@
       <c r="E48" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="75" t="s">
+      <c r="F48" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="77"/>
-    </row>
-    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G48" s="71"/>
+      <c r="H48" s="71"/>
+      <c r="I48" s="72"/>
+    </row>
+    <row r="49" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A49" s="4" t="s">
         <v>96</v>
       </c>
@@ -28636,14 +28634,14 @@
       <c r="E49" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="F49" s="78" t="s">
+      <c r="F49" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="80"/>
-    </row>
-    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G49" s="74"/>
+      <c r="H49" s="74"/>
+      <c r="I49" s="75"/>
+    </row>
+    <row r="50" spans="1:9" ht="31.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4" t="s">
         <v>99</v>
       </c>
@@ -28659,14 +28657,14 @@
       <c r="E50" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F50" s="78" t="s">
+      <c r="F50" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="80"/>
-    </row>
-    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G50" s="74"/>
+      <c r="H50" s="74"/>
+      <c r="I50" s="75"/>
+    </row>
+    <row r="51" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A51" s="4" t="s">
         <v>102</v>
       </c>
@@ -28682,14 +28680,14 @@
       <c r="E51" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="F51" s="78" t="s">
+      <c r="F51" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="G51" s="79"/>
-      <c r="H51" s="79"/>
-      <c r="I51" s="80"/>
-    </row>
-    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G51" s="74"/>
+      <c r="H51" s="74"/>
+      <c r="I51" s="75"/>
+    </row>
+    <row r="52" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4" t="s">
         <v>105</v>
       </c>
@@ -28705,14 +28703,14 @@
       <c r="E52" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F52" s="78" t="s">
+      <c r="F52" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="G52" s="79"/>
-      <c r="H52" s="79"/>
-      <c r="I52" s="80"/>
-    </row>
-    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G52" s="74"/>
+      <c r="H52" s="74"/>
+      <c r="I52" s="75"/>
+    </row>
+    <row r="53" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A53" s="19" t="s">
         <v>108</v>
       </c>
@@ -28728,470 +28726,496 @@
       <c r="E53" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="78" t="s">
+      <c r="F53" s="73" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="79"/>
-      <c r="H53" s="79"/>
-      <c r="I53" s="80"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A54" s="52" t="s">
+      <c r="G53" s="74"/>
+      <c r="H53" s="74"/>
+      <c r="I53" s="75"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A54" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B54" s="65"/>
-      <c r="C54" s="65"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="65"/>
-      <c r="F54" s="65"/>
-      <c r="G54" s="65"/>
-      <c r="H54" s="65"/>
-      <c r="I54" s="53"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B54" s="69"/>
+      <c r="C54" s="69"/>
+      <c r="D54" s="69"/>
+      <c r="E54" s="69"/>
+      <c r="F54" s="69"/>
+      <c r="G54" s="69"/>
+      <c r="H54" s="69"/>
+      <c r="I54" s="46"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A55" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C55" s="81" t="s">
+      <c r="C55" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="82"/>
+      <c r="D55" s="77"/>
       <c r="E55" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F55" s="69" t="s">
+      <c r="F55" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="G55" s="69"/>
-      <c r="H55" s="69"/>
-      <c r="I55" s="69"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G55" s="65"/>
+      <c r="H55" s="65"/>
+      <c r="I55" s="65"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="50" t="s">
+      <c r="C56" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="51"/>
+      <c r="D56" s="44"/>
       <c r="E56" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F56" s="69" t="s">
+      <c r="F56" s="65" t="s">
         <v>164</v>
       </c>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
-      <c r="I56" s="69"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G56" s="65"/>
+      <c r="H56" s="65"/>
+      <c r="I56" s="65"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C57" s="50" t="s">
+      <c r="C57" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="D57" s="51"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F57" s="69" t="s">
+      <c r="F57" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="G57" s="69"/>
-      <c r="H57" s="69"/>
-      <c r="I57" s="69"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G57" s="65"/>
+      <c r="H57" s="65"/>
+      <c r="I57" s="65"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A58" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C58" s="50" t="s">
+      <c r="C58" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F58" s="69" t="s">
+      <c r="F58" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="G58" s="69"/>
-      <c r="H58" s="69"/>
-      <c r="I58" s="69"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G58" s="65"/>
+      <c r="H58" s="65"/>
+      <c r="I58" s="65"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A59" s="24" t="s">
         <v>93</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="50" t="s">
+      <c r="C59" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="44"/>
       <c r="E59" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="F59" s="69" t="s">
+      <c r="F59" s="65" t="s">
         <v>172</v>
       </c>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
-      <c r="I59" s="69"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G59" s="65"/>
+      <c r="H59" s="65"/>
+      <c r="I59" s="65"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A60" s="24" t="s">
         <v>96</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C60" s="50" t="s">
+      <c r="C60" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="D60" s="51"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="F60" s="69" t="s">
+      <c r="F60" s="65" t="s">
         <v>174</v>
       </c>
-      <c r="G60" s="69"/>
-      <c r="H60" s="69"/>
-      <c r="I60" s="69"/>
-    </row>
-    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
+      <c r="I60" s="65"/>
+    </row>
+    <row r="61" spans="1:9" ht="29.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="24" t="s">
         <v>99</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C61" s="50" t="s">
+      <c r="C61" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="D61" s="51"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="25" t="s">
         <v>176</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="F61" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="G61" s="69"/>
-      <c r="H61" s="69"/>
-      <c r="I61" s="69"/>
-    </row>
-    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+      <c r="I61" s="65"/>
+    </row>
+    <row r="62" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A62" s="24" t="s">
         <v>102</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="50" t="s">
+      <c r="C62" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="D62" s="51"/>
+      <c r="D62" s="44"/>
       <c r="E62" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="57" t="s">
+      <c r="F62" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A63" s="52" t="s">
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
+      <c r="I62" s="65"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A63" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B63" s="65"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="65"/>
-      <c r="E63" s="65"/>
-      <c r="F63" s="65"/>
-      <c r="G63" s="65"/>
-      <c r="H63" s="65"/>
-      <c r="I63" s="53"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B63" s="69"/>
+      <c r="C63" s="69"/>
+      <c r="D63" s="69"/>
+      <c r="E63" s="69"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="69"/>
+      <c r="H63" s="69"/>
+      <c r="I63" s="46"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="B64" s="70" t="s">
+      <c r="B64" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70" t="s">
+      <c r="C64" s="78"/>
+      <c r="D64" s="78"/>
+      <c r="E64" s="78"/>
+      <c r="F64" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="G64" s="70"/>
-      <c r="H64" s="70"/>
-      <c r="I64" s="70"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="71" t="s">
+      <c r="G64" s="78"/>
+      <c r="H64" s="78"/>
+      <c r="I64" s="78"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A65" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C65" s="70"/>
-      <c r="D65" s="70"/>
-      <c r="E65" s="70"/>
-      <c r="F65" s="70" t="s">
+      <c r="C65" s="78"/>
+      <c r="D65" s="78"/>
+      <c r="E65" s="78"/>
+      <c r="F65" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="G65" s="70"/>
-      <c r="H65" s="70"/>
-      <c r="I65" s="70"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="72"/>
-      <c r="B66" s="70" t="s">
+      <c r="G65" s="78"/>
+      <c r="H65" s="78"/>
+      <c r="I65" s="78"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A66" s="80"/>
+      <c r="B66" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70" t="s">
+      <c r="C66" s="78"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="G66" s="70"/>
-      <c r="H66" s="70"/>
-      <c r="I66" s="70"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="71" t="s">
+      <c r="G66" s="78"/>
+      <c r="H66" s="78"/>
+      <c r="I66" s="78"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A67" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C67" s="70"/>
-      <c r="D67" s="70"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70" t="s">
+      <c r="C67" s="78"/>
+      <c r="D67" s="78"/>
+      <c r="E67" s="78"/>
+      <c r="F67" s="78" t="s">
         <v>189</v>
       </c>
-      <c r="G67" s="70"/>
-      <c r="H67" s="70"/>
-      <c r="I67" s="70"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="72"/>
-      <c r="B68" s="70" t="s">
+      <c r="G67" s="78"/>
+      <c r="H67" s="78"/>
+      <c r="I67" s="78"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A68" s="80"/>
+      <c r="B68" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70" t="s">
+      <c r="C68" s="78"/>
+      <c r="D68" s="78"/>
+      <c r="E68" s="78"/>
+      <c r="F68" s="78" t="s">
         <v>191</v>
       </c>
-      <c r="G68" s="70"/>
-      <c r="H68" s="70"/>
-      <c r="I68" s="70"/>
-    </row>
-    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="72"/>
-      <c r="B69" s="73" t="s">
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
+    </row>
+    <row r="69" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A69" s="80"/>
+      <c r="B69" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="C69" s="70"/>
-      <c r="D69" s="70"/>
-      <c r="E69" s="70"/>
-      <c r="F69" s="73" t="s">
+      <c r="C69" s="78"/>
+      <c r="D69" s="78"/>
+      <c r="E69" s="78"/>
+      <c r="F69" s="82" t="s">
         <v>193</v>
       </c>
-      <c r="G69" s="70"/>
-      <c r="H69" s="70"/>
-      <c r="I69" s="70"/>
-    </row>
-    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="74"/>
-      <c r="B70" s="70" t="s">
+      <c r="G69" s="78"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="78"/>
+    </row>
+    <row r="70" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A70" s="81"/>
+      <c r="B70" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="C70" s="70"/>
-      <c r="D70" s="70"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70" t="s">
+      <c r="C70" s="78"/>
+      <c r="D70" s="78"/>
+      <c r="E70" s="78"/>
+      <c r="F70" s="78" t="s">
         <v>195</v>
       </c>
-      <c r="G70" s="70"/>
-      <c r="H70" s="70"/>
-      <c r="I70" s="70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="71" t="s">
+      <c r="G70" s="78"/>
+      <c r="H70" s="78"/>
+      <c r="I70" s="78"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A71" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C71" s="70"/>
-      <c r="D71" s="70"/>
-      <c r="E71" s="70"/>
-      <c r="F71" s="70" t="s">
+      <c r="C71" s="78"/>
+      <c r="D71" s="78"/>
+      <c r="E71" s="78"/>
+      <c r="F71" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="G71" s="70"/>
-      <c r="H71" s="70"/>
-      <c r="I71" s="70"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="72"/>
-      <c r="B72" s="70" t="s">
+      <c r="G71" s="78"/>
+      <c r="H71" s="78"/>
+      <c r="I71" s="78"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A72" s="80"/>
+      <c r="B72" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C72" s="70"/>
-      <c r="D72" s="70"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70" t="s">
+      <c r="C72" s="78"/>
+      <c r="D72" s="78"/>
+      <c r="E72" s="78"/>
+      <c r="F72" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="G72" s="70"/>
-      <c r="H72" s="70"/>
-      <c r="I72" s="70"/>
-    </row>
-    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="72"/>
-      <c r="B73" s="73" t="s">
+      <c r="G72" s="78"/>
+      <c r="H72" s="78"/>
+      <c r="I72" s="78"/>
+    </row>
+    <row r="73" spans="1:9" ht="34.9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A73" s="80"/>
+      <c r="B73" s="82" t="s">
         <v>192</v>
       </c>
-      <c r="C73" s="70"/>
-      <c r="D73" s="70"/>
-      <c r="E73" s="70"/>
-      <c r="F73" s="73" t="s">
+      <c r="C73" s="78"/>
+      <c r="D73" s="78"/>
+      <c r="E73" s="78"/>
+      <c r="F73" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="G73" s="70"/>
-      <c r="H73" s="70"/>
-      <c r="I73" s="70"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="71" t="s">
+      <c r="G73" s="78"/>
+      <c r="H73" s="78"/>
+      <c r="I73" s="78"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A74" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="B74" s="70" t="s">
+      <c r="B74" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C74" s="70"/>
-      <c r="D74" s="70"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70" t="s">
+      <c r="C74" s="78"/>
+      <c r="D74" s="78"/>
+      <c r="E74" s="78"/>
+      <c r="F74" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="G74" s="70"/>
-      <c r="H74" s="70"/>
-      <c r="I74" s="70"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="72"/>
-      <c r="B75" s="70" t="s">
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A75" s="80"/>
+      <c r="B75" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C75" s="70"/>
-      <c r="D75" s="70"/>
-      <c r="E75" s="70"/>
-      <c r="F75" s="70" t="s">
+      <c r="C75" s="78"/>
+      <c r="D75" s="78"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="G75" s="70"/>
-      <c r="H75" s="70"/>
-      <c r="I75" s="70"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="71" t="s">
+      <c r="G75" s="78"/>
+      <c r="H75" s="78"/>
+      <c r="I75" s="78"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A76" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="B76" s="70" t="s">
+      <c r="B76" s="78" t="s">
         <v>190</v>
       </c>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70" t="s">
+      <c r="C76" s="78"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="G76" s="70"/>
-      <c r="H76" s="70"/>
-      <c r="I76" s="70"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="72"/>
-      <c r="B77" s="70" t="s">
+      <c r="G76" s="78"/>
+      <c r="H76" s="78"/>
+      <c r="I76" s="78"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A77" s="80"/>
+      <c r="B77" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="70" t="s">
+      <c r="C77" s="78"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="78" t="s">
         <v>200</v>
       </c>
-      <c r="G77" s="70"/>
-      <c r="H77" s="70"/>
-      <c r="I77" s="70"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G77" s="78"/>
+      <c r="H77" s="78"/>
+      <c r="I77" s="78"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A78" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B78" s="70" t="s">
+      <c r="B78" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C78" s="70"/>
-      <c r="D78" s="70"/>
-      <c r="E78" s="70"/>
-      <c r="F78" s="69" t="s">
+      <c r="C78" s="78"/>
+      <c r="D78" s="78"/>
+      <c r="E78" s="78"/>
+      <c r="F78" s="65" t="s">
         <v>201</v>
       </c>
-      <c r="G78" s="69"/>
-      <c r="H78" s="69"/>
-      <c r="I78" s="69"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
+      <c r="I78" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="F45:I45"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="F41:I41"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:I78"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:I74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:I75"/>
+    <mergeCell ref="A76:A77"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:I76"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:I71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:I72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:I73"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:I67"/>
+    <mergeCell ref="B68:E68"/>
+    <mergeCell ref="F68:I68"/>
+    <mergeCell ref="B69:E69"/>
+    <mergeCell ref="F69:I69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:I70"/>
+    <mergeCell ref="A63:I63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:I64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:I65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:I66"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="F60:I60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="F61:I61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="F62:I62"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="F59:I59"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="F56:I56"/>
     <mergeCell ref="F46:I46"/>
@@ -29205,54 +29229,28 @@
     <mergeCell ref="A54:I54"/>
     <mergeCell ref="C55:D55"/>
     <mergeCell ref="F55:I55"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="F60:I60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="F61:I61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="F62:I62"/>
-    <mergeCell ref="A63:I63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="F64:I64"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="F65:I65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="F66:I66"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="F67:I67"/>
-    <mergeCell ref="B68:E68"/>
-    <mergeCell ref="F68:I68"/>
-    <mergeCell ref="B69:E69"/>
-    <mergeCell ref="F69:I69"/>
-    <mergeCell ref="B70:E70"/>
-    <mergeCell ref="F70:I70"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:E71"/>
-    <mergeCell ref="F71:I71"/>
-    <mergeCell ref="B72:E72"/>
-    <mergeCell ref="F72:I72"/>
-    <mergeCell ref="B73:E73"/>
-    <mergeCell ref="F73:I73"/>
-    <mergeCell ref="B78:E78"/>
-    <mergeCell ref="F78:I78"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="F74:I74"/>
-    <mergeCell ref="B75:E75"/>
-    <mergeCell ref="F75:I75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:E76"/>
-    <mergeCell ref="F76:I76"/>
-    <mergeCell ref="B77:E77"/>
-    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="F45:I45"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="F41:I41"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29265,280 +29263,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64C3BD8C-2E32-48BE-BEFD-56C188B50064}">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:I42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="50"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="55">
         <v>43599</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="50"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="50"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="50"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="50"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
@@ -29548,16 +29546,16 @@
       <c r="C36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="45" t="s">
         <v>205</v>
       </c>
-      <c r="E36" s="65"/>
-      <c r="F36" s="65"/>
-      <c r="G36" s="65"/>
-      <c r="H36" s="65"/>
-      <c r="I36" s="53"/>
-    </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E36" s="69"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="46"/>
+    </row>
+    <row r="37" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -29567,16 +29565,16 @@
       <c r="C37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D37" s="81" t="s">
+      <c r="D37" s="76" t="s">
         <v>206</v>
       </c>
       <c r="E37" s="83"/>
       <c r="F37" s="83"/>
       <c r="G37" s="83"/>
       <c r="H37" s="83"/>
-      <c r="I37" s="82"/>
-    </row>
-    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I37" s="77"/>
+    </row>
+    <row r="38" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="4" t="s">
         <v>9</v>
       </c>
@@ -29593,9 +29591,9 @@
       <c r="F38" s="83"/>
       <c r="G38" s="83"/>
       <c r="H38" s="83"/>
-      <c r="I38" s="82"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I38" s="77"/>
+    </row>
+    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>6</v>
       </c>
@@ -29614,7 +29612,7 @@
       <c r="H39" s="85"/>
       <c r="I39" s="86"/>
     </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>3</v>
       </c>
@@ -29633,7 +29631,7 @@
       <c r="H40" s="85"/>
       <c r="I40" s="86"/>
     </row>
-    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>86</v>
       </c>
@@ -29643,60 +29641,72 @@
       <c r="C41" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="81" t="s">
+      <c r="D41" s="76" t="s">
         <v>156</v>
       </c>
       <c r="E41" s="83"/>
       <c r="F41" s="83"/>
       <c r="G41" s="83"/>
       <c r="H41" s="83"/>
-      <c r="I41" s="82"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="52" t="s">
+      <c r="I41" s="77"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A42" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="65"/>
-      <c r="F42" s="65"/>
-      <c r="G42" s="65"/>
-      <c r="H42" s="65"/>
-      <c r="I42" s="53"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B42" s="69"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="46"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A43" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A44" s="1" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A46" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="1" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A49" s="1" t="s">
         <v>212</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="C7:I7"/>
+    <mergeCell ref="C8:I8"/>
+    <mergeCell ref="C9:I9"/>
+    <mergeCell ref="D41:I41"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="C2:E2"/>
@@ -29709,18 +29719,6 @@
     <mergeCell ref="G5:I5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="C8:I8"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D40:I40"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29733,292 +29731,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E404173-E494-49A5-91D0-06DCC8BD706D}">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F50" sqref="F50:I50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="50"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="55">
         <v>43599</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="50"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="50"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
         <v>213</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="50"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>214</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="50"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
         <v>215</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="28"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="8"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="29" t="s">
         <v>16</v>
       </c>
@@ -30028,16 +30026,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
       <c r="I39" s="88"/>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="30" t="s">
         <v>12</v>
       </c>
@@ -30047,16 +30045,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="76" t="s">
         <v>223</v>
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
       <c r="H40" s="83"/>
-      <c r="I40" s="102"/>
-    </row>
-    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="89"/>
+    </row>
+    <row r="41" spans="1:9" ht="38.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="30" t="s">
         <v>9</v>
       </c>
@@ -30066,16 +30064,16 @@
       <c r="C41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="D41" s="75" t="s">
+      <c r="D41" s="70" t="s">
         <v>207</v>
       </c>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="103"/>
-    </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="90"/>
+    </row>
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="30" t="s">
         <v>6</v>
       </c>
@@ -30085,16 +30083,16 @@
       <c r="C42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D42" s="90" t="s">
-        <v>272</v>
-      </c>
-      <c r="E42" s="91"/>
-      <c r="F42" s="91"/>
-      <c r="G42" s="91"/>
-      <c r="H42" s="91"/>
-      <c r="I42" s="92"/>
-    </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D42" s="91" t="s">
+        <v>273</v>
+      </c>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="93"/>
+    </row>
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="30" t="s">
         <v>3</v>
       </c>
@@ -30111,9 +30109,9 @@
       <c r="F43" s="67"/>
       <c r="G43" s="67"/>
       <c r="H43" s="67"/>
-      <c r="I43" s="93"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="87"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="30" t="s">
         <v>86</v>
       </c>
@@ -30123,16 +30121,16 @@
       <c r="C44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D44" s="90" t="s">
-        <v>273</v>
-      </c>
-      <c r="E44" s="91"/>
-      <c r="F44" s="91"/>
-      <c r="G44" s="91"/>
-      <c r="H44" s="91"/>
-      <c r="I44" s="92"/>
-    </row>
-    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D44" s="91" t="s">
+        <v>274</v>
+      </c>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="93"/>
+    </row>
+    <row r="45" spans="1:9" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="30" t="s">
         <v>90</v>
       </c>
@@ -30149,141 +30147,145 @@
       <c r="F45" s="67"/>
       <c r="G45" s="67"/>
       <c r="H45" s="67"/>
-      <c r="I45" s="93"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="87" t="s">
+      <c r="I45" s="87"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="94" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
       <c r="I46" s="88"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A47" s="94" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A47" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
-      <c r="F47" s="95"/>
-      <c r="G47" s="95"/>
-      <c r="H47" s="95"/>
-      <c r="I47" s="96"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="97" t="s">
+      <c r="B47" s="96"/>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="97"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A48" s="98" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="99" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="98"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="100" t="s">
+      <c r="F48" s="101" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="100"/>
-      <c r="H48" s="100"/>
-      <c r="I48" s="101"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="89" t="s">
+      <c r="G48" s="101"/>
+      <c r="H48" s="101"/>
+      <c r="I48" s="102"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A49" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="50" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="D49" s="51"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="F49" s="69" t="s">
+      <c r="F49" s="65" t="s">
         <v>268</v>
       </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="89" t="s">
+      <c r="G49" s="65"/>
+      <c r="H49" s="65"/>
+      <c r="I49" s="65"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A50" s="103" t="s">
         <v>220</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="50" t="s">
+      <c r="B50" s="44"/>
+      <c r="C50" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="D50" s="51"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="25" t="s">
         <v>163</v>
       </c>
-      <c r="F50" s="69" t="s">
+      <c r="F50" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="87" t="s">
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A51" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="65"/>
-      <c r="C51" s="65"/>
-      <c r="D51" s="65"/>
-      <c r="E51" s="65"/>
-      <c r="F51" s="65"/>
-      <c r="G51" s="65"/>
-      <c r="H51" s="65"/>
+      <c r="B51" s="69"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="69"/>
+      <c r="E51" s="69"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
       <c r="I51" s="88"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A52" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A53" s="1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A55" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="1" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="1" t="s">
         <v>264</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A51:I51"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A47:I47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="D43:I43"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -30296,20 +30298,16 @@
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
     <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A47:I47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="A51:I51"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30322,288 +30320,288 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CA5284-9049-4E6F-911D-0F2233957585}">
   <dimension ref="A1:I67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="50"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="55">
         <v>43599</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="50"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="50"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="50"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>225</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="50"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
         <v>226</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="32"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="32"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
@@ -30613,16 +30611,16 @@
       <c r="C38" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="53"/>
-    </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="46"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -30632,16 +30630,16 @@
       <c r="C39" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D39" s="81" t="s">
+      <c r="D39" s="76" t="s">
         <v>227</v>
       </c>
       <c r="E39" s="83"/>
       <c r="F39" s="83"/>
       <c r="G39" s="83"/>
       <c r="H39" s="83"/>
-      <c r="I39" s="82"/>
-    </row>
-    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I39" s="77"/>
+    </row>
+    <row r="40" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>9</v>
       </c>
@@ -30660,7 +30658,7 @@
       <c r="H40" s="67"/>
       <c r="I40" s="68"/>
     </row>
-    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" ht="34.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>6</v>
       </c>
@@ -30679,7 +30677,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="68"/>
     </row>
-    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>3</v>
       </c>
@@ -30698,7 +30696,7 @@
       <c r="H42" s="85"/>
       <c r="I42" s="86"/>
     </row>
-    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>86</v>
       </c>
@@ -30708,16 +30706,16 @@
       <c r="C43" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="81" t="s">
+      <c r="D43" s="76" t="s">
         <v>231</v>
       </c>
       <c r="E43" s="83"/>
       <c r="F43" s="83"/>
       <c r="G43" s="83"/>
       <c r="H43" s="83"/>
-      <c r="I43" s="82"/>
-    </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I43" s="77"/>
+    </row>
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>90</v>
       </c>
@@ -30727,16 +30725,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="76" t="s">
         <v>233</v>
       </c>
       <c r="E44" s="83"/>
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
       <c r="H44" s="83"/>
-      <c r="I44" s="82"/>
-    </row>
-    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="77"/>
+    </row>
+    <row r="45" spans="1:9" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4" t="s">
         <v>93</v>
       </c>
@@ -30755,20 +30753,20 @@
       <c r="H45" s="67"/>
       <c r="I45" s="68"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="52" t="s">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="33" t="s">
         <v>234</v>
       </c>
@@ -30781,34 +30779,34 @@
       <c r="H47" s="34"/>
       <c r="I47" s="35"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A48" s="99" t="s">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A48" s="100" t="s">
         <v>158</v>
       </c>
-      <c r="B48" s="98"/>
-      <c r="C48" s="99" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="100" t="s">
         <v>159</v>
       </c>
-      <c r="D48" s="98"/>
+      <c r="D48" s="99"/>
       <c r="E48" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="F48" s="99" t="s">
+      <c r="F48" s="100" t="s">
         <v>157</v>
       </c>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="98"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="81" t="s">
+      <c r="G48" s="104"/>
+      <c r="H48" s="104"/>
+      <c r="I48" s="99"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A49" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="B49" s="82"/>
-      <c r="C49" s="81" t="s">
+      <c r="B49" s="77"/>
+      <c r="C49" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="D49" s="82"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="25" t="s">
         <v>163</v>
       </c>
@@ -30819,45 +30817,45 @@
       <c r="H49" s="85"/>
       <c r="I49" s="86"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A50" s="81" t="s">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A50" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="B50" s="82"/>
-      <c r="C50" s="81" t="s">
+      <c r="B50" s="77"/>
+      <c r="C50" s="76" t="s">
         <v>221</v>
       </c>
-      <c r="D50" s="82"/>
+      <c r="D50" s="77"/>
       <c r="E50" s="25" t="s">
         <v>262</v>
       </c>
-      <c r="F50" s="104" t="s">
+      <c r="F50" s="105" t="s">
         <v>271</v>
       </c>
-      <c r="G50" s="104"/>
-      <c r="H50" s="104"/>
-      <c r="I50" s="104"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A51" s="81" t="s">
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A51" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="B51" s="82"/>
-      <c r="C51" s="81" t="s">
+      <c r="B51" s="77"/>
+      <c r="C51" s="76" t="s">
         <v>236</v>
       </c>
-      <c r="D51" s="82"/>
+      <c r="D51" s="77"/>
       <c r="E51" s="38" t="s">
         <v>257</v>
       </c>
-      <c r="F51" s="105" t="s">
-        <v>279</v>
-      </c>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="F51" s="107" t="s">
+        <v>272</v>
+      </c>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A52" s="33" t="s">
         <v>237</v>
       </c>
@@ -30870,20 +30868,20 @@
       <c r="H52" s="34"/>
       <c r="I52" s="35"/>
     </row>
-    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="99" t="s">
+    <row r="53" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A53" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="B53" s="107"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="107"/>
-      <c r="I53" s="98"/>
-    </row>
-    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="104"/>
+      <c r="C53" s="104"/>
+      <c r="D53" s="104"/>
+      <c r="E53" s="104"/>
+      <c r="F53" s="104"/>
+      <c r="G53" s="104"/>
+      <c r="H53" s="104"/>
+      <c r="I53" s="99"/>
+    </row>
+    <row r="54" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A54" s="66" t="s">
         <v>258</v>
       </c>
@@ -30894,78 +30892,87 @@
       <c r="F54" s="83"/>
       <c r="G54" s="83"/>
       <c r="H54" s="83"/>
-      <c r="I54" s="82"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A55" s="52" t="s">
+      <c r="I54" s="77"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A55" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="65"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="65"/>
-      <c r="E55" s="65"/>
-      <c r="F55" s="65"/>
-      <c r="G55" s="65"/>
-      <c r="H55" s="65"/>
-      <c r="I55" s="53"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="69"/>
+      <c r="I55" s="46"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A56" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A57" s="1" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A59" s="27" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A60" s="1" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A62" s="27" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A63" s="1" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A64" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A66" s="27" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.7">
       <c r="A67" s="1" t="s">
         <v>261</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A55:I55"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="F49:I49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A53:I53"/>
+    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="A46:I46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="F48:I48"/>
     <mergeCell ref="D42:I42"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -30978,25 +30985,16 @@
     <mergeCell ref="D39:I39"/>
     <mergeCell ref="D40:I40"/>
     <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="A46:I46"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="F48:I48"/>
-    <mergeCell ref="A55:I55"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="F49:I49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:I51"/>
-    <mergeCell ref="A53:I53"/>
-    <mergeCell ref="A54:I54"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31009,292 +31007,292 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440DAACA-D7A1-43F1-853F-D7EC8172BABB}">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="16384" width="11.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A2" s="39" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="49"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A2" s="50" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
       <c r="F2" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="41"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" s="39"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="52"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A3" s="50"/>
       <c r="B3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="47">
+      <c r="G3" s="55">
         <v>43599</v>
       </c>
-      <c r="H3" s="40"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4" s="39"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A4" s="50"/>
       <c r="B4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="51">
         <v>1</v>
       </c>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="39"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A5" s="50"/>
       <c r="B5" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="48" t="s">
+      <c r="G5" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="48"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="39"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A6" s="50"/>
       <c r="B6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="41"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A7" s="50" t="s">
         <v>24</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="41"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="39"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A8" s="50"/>
       <c r="B8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="51" t="s">
         <v>244</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="41"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A9" s="50"/>
       <c r="B9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="51" t="s">
         <v>245</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="41"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="39" t="s">
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A10" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="54"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A11" s="8"/>
       <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A12" s="8"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A13" s="8"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A14" s="8"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A15" s="8"/>
       <c r="I15" s="7"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A16" s="8"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A17" s="8"/>
       <c r="I17" s="7"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A18" s="8"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A19" s="8"/>
       <c r="I19" s="7"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A20" s="8"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A21" s="8"/>
       <c r="I21" s="7"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A22" s="8"/>
       <c r="I22" s="7"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A23" s="8"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A24" s="8"/>
       <c r="I24" s="7"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A25" s="8"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A26" s="8"/>
       <c r="I26" s="7"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A27" s="8"/>
       <c r="I27" s="7"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A28" s="8"/>
       <c r="I28" s="7"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A29" s="32"/>
       <c r="I29" s="7"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A30" s="8"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A31" s="8"/>
       <c r="I31" s="7"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A32" s="8"/>
       <c r="I32" s="7"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A33" s="8"/>
       <c r="I33" s="7"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A34" s="8"/>
       <c r="I34" s="7"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A35" s="8"/>
       <c r="I35" s="7"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A36" s="8"/>
       <c r="I36" s="7"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A37" s="8"/>
       <c r="I37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A38" s="8"/>
       <c r="I38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A39" s="6" t="s">
         <v>16</v>
       </c>
@@ -31304,16 +31302,16 @@
       <c r="C39" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="45" t="s">
         <v>134</v>
       </c>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="53"/>
-    </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="46"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -31323,16 +31321,16 @@
       <c r="C40" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="76" t="s">
         <v>246</v>
       </c>
       <c r="E40" s="83"/>
       <c r="F40" s="83"/>
       <c r="G40" s="83"/>
       <c r="H40" s="83"/>
-      <c r="I40" s="82"/>
-    </row>
-    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I40" s="77"/>
+    </row>
+    <row r="41" spans="1:9" ht="39.4" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4" t="s">
         <v>9</v>
       </c>
@@ -31351,7 +31349,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="68"/>
     </row>
-    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A42" s="4" t="s">
         <v>6</v>
       </c>
@@ -31370,7 +31368,7 @@
       <c r="H42" s="67"/>
       <c r="I42" s="68"/>
     </row>
-    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="55.9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4" t="s">
         <v>3</v>
       </c>
@@ -31389,7 +31387,7 @@
       <c r="H43" s="67"/>
       <c r="I43" s="68"/>
     </row>
-    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A44" s="4" t="s">
         <v>86</v>
       </c>
@@ -31399,16 +31397,16 @@
       <c r="C44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="81" t="s">
+      <c r="D44" s="76" t="s">
         <v>248</v>
       </c>
       <c r="E44" s="83"/>
       <c r="F44" s="83"/>
       <c r="G44" s="83"/>
       <c r="H44" s="83"/>
-      <c r="I44" s="82"/>
-    </row>
-    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="I44" s="77"/>
+    </row>
+    <row r="45" spans="1:9" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="19" t="s">
         <v>90</v>
       </c>
@@ -31418,131 +31416,125 @@
       <c r="C45" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D45" s="81" t="s">
+      <c r="D45" s="76" t="s">
         <v>249</v>
       </c>
       <c r="E45" s="83"/>
       <c r="F45" s="83"/>
       <c r="G45" s="83"/>
       <c r="H45" s="83"/>
-      <c r="I45" s="82"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A46" s="52" t="s">
+      <c r="I45" s="77"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A46" s="45" t="s">
         <v>157</v>
       </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="65"/>
-      <c r="F46" s="65"/>
-      <c r="G46" s="65"/>
-      <c r="H46" s="65"/>
-      <c r="I46" s="53"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B46" s="69"/>
+      <c r="C46" s="69"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="46"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A47" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="C47" s="81" t="s">
+      <c r="C47" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="D47" s="82"/>
+      <c r="D47" s="77"/>
       <c r="E47" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F47" s="69" t="s">
+      <c r="F47" s="65" t="s">
         <v>157</v>
       </c>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="65"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A48" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="50" t="s">
+      <c r="C48" s="43" t="s">
         <v>251</v>
       </c>
-      <c r="D48" s="51"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="25" t="s">
         <v>179</v>
       </c>
-      <c r="F48" s="69" t="s">
+      <c r="F48" s="65" t="s">
         <v>252</v>
       </c>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A49" s="52" t="s">
+      <c r="G48" s="65"/>
+      <c r="H48" s="65"/>
+      <c r="I48" s="65"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="A49" s="45" t="s">
         <v>253</v>
       </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="65"/>
-      <c r="G49" s="65"/>
-      <c r="H49" s="65"/>
-      <c r="I49" s="53"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B49" s="69"/>
+      <c r="C49" s="69"/>
+      <c r="D49" s="69"/>
+      <c r="E49" s="69"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="46"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A50" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="108"/>
-      <c r="D50" s="108"/>
-      <c r="E50" s="51"/>
-      <c r="F50" s="69" t="s">
+      <c r="C50" s="106"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="G50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="65"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.7">
       <c r="A51" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="C51" s="108"/>
-      <c r="D51" s="108"/>
-      <c r="E51" s="51"/>
-      <c r="F51" s="69" t="s">
+      <c r="C51" s="106"/>
+      <c r="D51" s="106"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="65" t="s">
         <v>254</v>
       </c>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
+      <c r="G51" s="65"/>
+      <c r="H51" s="65"/>
+      <c r="I51" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="F47:I47"/>
+    <mergeCell ref="A49:I49"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="F50:I50"/>
+    <mergeCell ref="B51:E51"/>
+    <mergeCell ref="F51:I51"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="C7:I7"/>
     <mergeCell ref="C8:I8"/>
@@ -31559,12 +31551,18 @@
     <mergeCell ref="D45:I45"/>
     <mergeCell ref="A46:I46"/>
     <mergeCell ref="C47:D47"/>
-    <mergeCell ref="F47:I47"/>
-    <mergeCell ref="A49:I49"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="F50:I50"/>
-    <mergeCell ref="B51:E51"/>
-    <mergeCell ref="F51:I51"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="G6:I6"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
